--- a/data.xlsx
+++ b/data.xlsx
@@ -403,7 +403,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2">
         <v>42005</v>
@@ -414,7 +414,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>42005.00001157408</v>
@@ -425,7 +425,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
         <v>42005.00002314815</v>
@@ -436,7 +436,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
         <v>42005.00003472222</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>42005.0000462963</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2">
         <v>42005.00005787037</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
         <v>42005.00006944445</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>42005.00009259259</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2">
         <v>42005.00010416667</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2">
         <v>42005.00011574074</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2">
         <v>42005.00012731482</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2">
         <v>42005.00013888889</v>
@@ -546,7 +546,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2">
         <v>42005.00015046296</v>
@@ -557,7 +557,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
         <v>42005.00016203704</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2">
         <v>42005.00018518518</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2">
         <v>42005.00019675926</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>42005.00021990741</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B22" s="2">
         <v>42005.00023148148</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2">
         <v>42005.00024305555</v>
@@ -645,7 +645,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24" s="2">
         <v>42005.00025462963</v>
@@ -656,7 +656,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" s="2">
         <v>42005.0002662037</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2">
         <v>42005.00027777778</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2">
         <v>42005.00028935185</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" s="2">
         <v>42005.00030092592</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2">
         <v>42005.0003125</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B30" s="2">
         <v>42005.00032407408</v>
@@ -722,7 +722,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B31" s="2">
         <v>42005.00033564815</v>
@@ -733,7 +733,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B32" s="2">
         <v>42005.00034722222</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B33" s="2">
         <v>42005.00035879629</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B34" s="2">
         <v>42005.00037037037</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="2">
         <v>42005.00038194445</v>
@@ -777,7 +777,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B36" s="2">
         <v>42005.00039351852</v>
@@ -788,7 +788,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B37" s="2">
         <v>42005.00040509259</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="2">
         <v>42005.00041666667</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B39" s="2">
         <v>42005.00042824074</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B40" s="2">
         <v>42005.00043981482</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B42" s="2">
         <v>42005.00046296296</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B43" s="2">
         <v>42005.00047453704</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B45" s="2">
         <v>42005.00049768519</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2">
         <v>42005.00050925926</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B47" s="2">
         <v>42005.00052083333</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2">
         <v>42005.00053240741</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B49" s="2">
         <v>42005.00054398148</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50" s="2">
         <v>42005.00055555555</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B51" s="2">
         <v>42005.00056712963</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2">
         <v>42005.0005787037</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2">
         <v>42005.00059027778</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B54" s="2">
         <v>42005.00060185185</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B55" s="2">
         <v>42005.00061342592</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2">
         <v>42005.00063657408</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2">
         <v>42005.00064814815</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B59" s="2">
         <v>42005.00065972222</v>
@@ -1041,7 +1041,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B60" s="2">
         <v>42005.00067129629</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B61" s="2">
         <v>42005.00068287037</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62" s="2">
         <v>42005.00069444445</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63" s="2">
         <v>42005.00070601852</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B64" s="2">
         <v>42005.00071759259</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2">
         <v>42005.00074074074</v>
@@ -1118,7 +1118,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67" s="2">
         <v>42005.00075231482</v>
@@ -1129,7 +1129,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B68" s="2">
         <v>42005.00076388889</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2">
         <v>42005.00077546296</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B70" s="2">
         <v>42005.00078703704</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B71" s="2">
         <v>42005.00079861111</v>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2">
         <v>42005.00081018519</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B73" s="2">
         <v>42005.00082175926</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B74" s="2">
         <v>42005.00083333333</v>
@@ -1206,7 +1206,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B75" s="2">
         <v>42005.00084490741</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B76" s="2">
         <v>42005.00085648148</v>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B77" s="2">
         <v>42005.00086805555</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B78" s="2">
         <v>42005.00087962963</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B79" s="2">
         <v>42005.0008912037</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="2">
         <v>42005.00090277778</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B81" s="2">
         <v>42005.00091435185</v>
@@ -1294,7 +1294,7 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B83" s="2">
         <v>42005.0009375</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B85" s="2">
         <v>42005.00096064815</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B86" s="2">
         <v>42005.00097222222</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B87" s="2">
         <v>42005.00098379629</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B88" s="2">
         <v>42005.00099537037</v>
@@ -1360,7 +1360,7 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B89" s="2">
         <v>42005.00100694445</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="91" spans="1:3">
       <c r="A91">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B91" s="2">
         <v>42005.00103009259</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B92" s="2">
         <v>42005.00104166667</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="93" spans="1:3">
       <c r="A93">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B93" s="2">
         <v>42005.00105324074</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="94" spans="1:3">
       <c r="A94">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2">
         <v>42005.00106481482</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B96" s="2">
         <v>42005.00108796296</v>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="97" spans="1:3">
       <c r="A97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B97" s="2">
         <v>42005.00109953704</v>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="98" spans="1:3">
       <c r="A98">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B98" s="2">
         <v>42005.00111111111</v>
@@ -1470,7 +1470,7 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B99" s="2">
         <v>42005.00112268519</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="100" spans="1:3">
       <c r="A100">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B100" s="2">
         <v>42005.00113425926</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="101" spans="1:3">
       <c r="A101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="2">
         <v>42005.00114583333</v>
